--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/183.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/183.xlsx
@@ -479,13 +479,13 @@
         <v>-4.40462398276486</v>
       </c>
       <c r="E2" t="n">
-        <v>-14.68104341310578</v>
+        <v>-14.76487342820135</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.08300791385563536</v>
+        <v>-0.01285935522966708</v>
       </c>
       <c r="G2" t="n">
-        <v>-11.15168587454747</v>
+        <v>-11.26346795621013</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-4.148827537160711</v>
       </c>
       <c r="E3" t="n">
-        <v>-14.83682872461948</v>
+        <v>-14.91241058892476</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.01590986179178925</v>
+        <v>0.06378298560579733</v>
       </c>
       <c r="G3" t="n">
-        <v>-10.85946567512015</v>
+        <v>-10.96375895955734</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-3.907746950046948</v>
       </c>
       <c r="E4" t="n">
-        <v>-15.1970110680982</v>
+        <v>-15.27974132975507</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02288263152824509</v>
+        <v>0.09618643513906934</v>
       </c>
       <c r="G4" t="n">
-        <v>-10.49267171870635</v>
+        <v>-10.60615579973843</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-3.699189144266422</v>
       </c>
       <c r="E5" t="n">
-        <v>-15.70516261829412</v>
+        <v>-15.79603629231854</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1484116311747146</v>
+        <v>0.2324904000242795</v>
       </c>
       <c r="G5" t="n">
-        <v>-10.30529468043557</v>
+        <v>-10.42366219042761</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-3.501952116049764</v>
       </c>
       <c r="E6" t="n">
-        <v>-16.18875300835895</v>
+        <v>-16.28596335695877</v>
       </c>
       <c r="F6" t="n">
-        <v>0.140556249469679</v>
+        <v>0.2206418659525173</v>
       </c>
       <c r="G6" t="n">
-        <v>-10.14572569340061</v>
+        <v>-10.26906827847251</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-3.302684733370531</v>
       </c>
       <c r="E7" t="n">
-        <v>-16.7565923672103</v>
+        <v>-16.86902906401504</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2707984781391699</v>
+        <v>0.3751965009990936</v>
       </c>
       <c r="G7" t="n">
-        <v>-9.998280178797089</v>
+        <v>-10.12058847194449</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-3.090451445999818</v>
       </c>
       <c r="E8" t="n">
-        <v>-17.3400770279575</v>
+        <v>-17.46548819687839</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4227215603145592</v>
+        <v>0.5163315256329006</v>
       </c>
       <c r="G8" t="n">
-        <v>-9.792953593330299</v>
+        <v>-9.914764378969718</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-2.860916724364196</v>
       </c>
       <c r="E9" t="n">
-        <v>-18.0638457136538</v>
+        <v>-18.20589719948653</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6980003198646916</v>
+        <v>0.8038777729457303</v>
       </c>
       <c r="G9" t="n">
-        <v>-9.82929782601893</v>
+        <v>-9.953216472415868</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-2.60818832643344</v>
       </c>
       <c r="E10" t="n">
-        <v>-18.54471290472756</v>
+        <v>-18.69641341775464</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7425403341322436</v>
+        <v>0.8352862074630311</v>
       </c>
       <c r="G10" t="n">
-        <v>-9.484132353899664</v>
+        <v>-9.602945002188328</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-2.340506803064462</v>
       </c>
       <c r="E11" t="n">
-        <v>-19.14647442024181</v>
+        <v>-19.31002346734065</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8680693337787132</v>
+        <v>0.9607628378981337</v>
       </c>
       <c r="G11" t="n">
-        <v>-9.435952679442112</v>
+        <v>-9.559465464450957</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-2.066406167137748</v>
       </c>
       <c r="E12" t="n">
-        <v>-19.69258055637589</v>
+        <v>-19.86016203274998</v>
       </c>
       <c r="F12" t="n">
-        <v>1.024024845229354</v>
+        <v>1.128841821780213</v>
       </c>
       <c r="G12" t="n">
-        <v>-8.944140323192673</v>
+        <v>-9.069302738359575</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-1.796966079627353</v>
       </c>
       <c r="E13" t="n">
-        <v>-20.5036749020265</v>
+        <v>-20.67942597537384</v>
       </c>
       <c r="F13" t="n">
-        <v>1.207225438893627</v>
+        <v>1.319727597212579</v>
       </c>
       <c r="G13" t="n">
-        <v>-8.449172721958377</v>
+        <v>-8.589980439021142</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-1.551713579366481</v>
       </c>
       <c r="E14" t="n">
-        <v>-21.33538962465283</v>
+        <v>-21.51221426683319</v>
       </c>
       <c r="F14" t="n">
-        <v>1.525407674856096</v>
+        <v>1.650727197657097</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.989069923191598</v>
+        <v>-8.149070956220331</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-1.341244556294146</v>
       </c>
       <c r="E15" t="n">
-        <v>-22.15799210450133</v>
+        <v>-22.33922885273934</v>
       </c>
       <c r="F15" t="n">
-        <v>1.63732067954717</v>
+        <v>1.767772385062129</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.545123026131509</v>
+        <v>-7.721973852917545</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-1.170514015138902</v>
       </c>
       <c r="E16" t="n">
-        <v>-23.01636275571341</v>
+        <v>-23.19267679808294</v>
       </c>
       <c r="F16" t="n">
-        <v>1.914589469129245</v>
+        <v>2.05025191117521</v>
       </c>
       <c r="G16" t="n">
-        <v>-6.96912716260977</v>
+        <v>-7.133239178730807</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-1.042183548046053</v>
       </c>
       <c r="E17" t="n">
-        <v>-23.63032629747616</v>
+        <v>-23.80245080293633</v>
       </c>
       <c r="F17" t="n">
-        <v>2.104663521785424</v>
+        <v>2.242420732286066</v>
       </c>
       <c r="G17" t="n">
-        <v>-6.88151347199294</v>
+        <v>-7.051215901427392</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-0.949843229955934</v>
       </c>
       <c r="E18" t="n">
-        <v>-24.44161702766939</v>
+        <v>-24.61874279281511</v>
       </c>
       <c r="F18" t="n">
-        <v>2.517647122624831</v>
+        <v>2.670224819942307</v>
       </c>
       <c r="G18" t="n">
-        <v>-6.480561697465078</v>
+        <v>-6.649779711694388</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-0.8902733791632037</v>
       </c>
       <c r="E19" t="n">
-        <v>-25.29020772865871</v>
+        <v>-25.47546381386914</v>
       </c>
       <c r="F19" t="n">
-        <v>2.782373486084532</v>
+        <v>2.937176874885101</v>
       </c>
       <c r="G19" t="n">
-        <v>-6.179124516837177</v>
+        <v>-6.340408595544401</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-0.8639835207535492</v>
       </c>
       <c r="E20" t="n">
-        <v>-26.04331626502332</v>
+        <v>-26.2288080116849</v>
       </c>
       <c r="F20" t="n">
-        <v>3.004288019251789</v>
+        <v>3.158724823572789</v>
       </c>
       <c r="G20" t="n">
-        <v>-6.062314990883298</v>
+        <v>-6.24323752385311</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-0.8678048384693061</v>
       </c>
       <c r="E21" t="n">
-        <v>-26.62718060255294</v>
+        <v>-26.81341861047649</v>
       </c>
       <c r="F21" t="n">
-        <v>3.323190331870552</v>
+        <v>3.471657046095726</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.734562281543528</v>
+        <v>-5.903479172807477</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-0.9064628130867561</v>
       </c>
       <c r="E22" t="n">
-        <v>-27.21323135465712</v>
+        <v>-27.40102734661884</v>
       </c>
       <c r="F22" t="n">
-        <v>3.532222039041551</v>
+        <v>3.667544081213631</v>
       </c>
       <c r="G22" t="n">
-        <v>-5.583725860504001</v>
+        <v>-5.775056774232986</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-0.983891292177492</v>
       </c>
       <c r="E23" t="n">
-        <v>-27.6622580652198</v>
+        <v>-27.84158333724292</v>
       </c>
       <c r="F23" t="n">
-        <v>3.715330986585931</v>
+        <v>3.848453521880602</v>
       </c>
       <c r="G23" t="n">
-        <v>-5.386464133587714</v>
+        <v>-5.570489542331016</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-1.098940178031126</v>
       </c>
       <c r="E24" t="n">
-        <v>-27.8912162573159</v>
+        <v>-28.07275412851928</v>
       </c>
       <c r="F24" t="n">
-        <v>3.850888690209163</v>
+        <v>3.985503748027791</v>
       </c>
       <c r="G24" t="n">
-        <v>-5.223491147813909</v>
+        <v>-5.410187386336922</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-1.255631144311567</v>
       </c>
       <c r="E25" t="n">
-        <v>-28.15980485011391</v>
+        <v>-28.33549046194704</v>
       </c>
       <c r="F25" t="n">
-        <v>4.165837127369725</v>
+        <v>4.301761415472526</v>
       </c>
       <c r="G25" t="n">
-        <v>-4.931401871415</v>
+        <v>-5.111892358391035</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-1.452013692611548</v>
       </c>
       <c r="E26" t="n">
-        <v>-28.11999115717223</v>
+        <v>-28.2944068156297</v>
       </c>
       <c r="F26" t="n">
-        <v>4.323651745823891</v>
+        <v>4.4723803061059</v>
       </c>
       <c r="G26" t="n">
-        <v>-4.933706116715143</v>
+        <v>-5.121109339591611</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-1.681312011094193</v>
       </c>
       <c r="E27" t="n">
-        <v>-28.01328888901216</v>
+        <v>-28.18177373428233</v>
       </c>
       <c r="F27" t="n">
-        <v>4.278640408654037</v>
+        <v>4.418178172341154</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.753673860338568</v>
+        <v>-4.921006582958669</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-1.941397235600101</v>
       </c>
       <c r="E28" t="n">
-        <v>-27.96078875461684</v>
+        <v>-28.13479855168622</v>
       </c>
       <c r="F28" t="n">
-        <v>4.261227645874541</v>
+        <v>4.387542183691515</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.672331382782924</v>
+        <v>-4.826624171772666</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-2.223359997948788</v>
       </c>
       <c r="E29" t="n">
-        <v>-27.74993721735084</v>
+        <v>-27.91309349536443</v>
       </c>
       <c r="F29" t="n">
-        <v>4.250308665304543</v>
+        <v>4.373062096748566</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.554409011087498</v>
+        <v>-4.701527218119973</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-2.518042068792373</v>
       </c>
       <c r="E30" t="n">
-        <v>-27.6053720093725</v>
+        <v>-27.76378887375738</v>
       </c>
       <c r="F30" t="n">
-        <v>4.155756054181596</v>
+        <v>4.26751195123857</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.50823245896473</v>
+        <v>-4.654421112495443</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-2.821206172605541</v>
       </c>
       <c r="E31" t="n">
-        <v>-27.16230229660281</v>
+        <v>-27.31436939410946</v>
       </c>
       <c r="F31" t="n">
-        <v>4.012107307402178</v>
+        <v>4.117657452912174</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.603164746870085</v>
+        <v>-4.734100867590188</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-3.123108413749989</v>
       </c>
       <c r="E32" t="n">
-        <v>-26.78778388151239</v>
+        <v>-26.93289896621008</v>
       </c>
       <c r="F32" t="n">
-        <v>3.927661954073045</v>
+        <v>4.027242009487213</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.683656224741018</v>
+        <v>-4.813060546028638</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-3.418168262678445</v>
       </c>
       <c r="E33" t="n">
-        <v>-26.3681232062237</v>
+        <v>-26.51313355249866</v>
       </c>
       <c r="F33" t="n">
-        <v>3.794932187863626</v>
+        <v>3.892496028640169</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.628786383531343</v>
+        <v>-4.724779147966879</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-3.703178011386608</v>
       </c>
       <c r="E34" t="n">
-        <v>-25.88294864751502</v>
+        <v>-26.02320648785843</v>
       </c>
       <c r="F34" t="n">
-        <v>3.667386973579531</v>
+        <v>3.757304909496505</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.453179325515272</v>
+        <v>-4.533710080294729</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-3.968332709560109</v>
       </c>
       <c r="E35" t="n">
-        <v>-25.47813464364885</v>
+        <v>-25.61031453313892</v>
       </c>
       <c r="F35" t="n">
-        <v>3.427483616307742</v>
+        <v>3.51970579752486</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.463194937189193</v>
+        <v>-4.529337251145592</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-4.212338574540184</v>
       </c>
       <c r="E36" t="n">
-        <v>-24.78889036054618</v>
+        <v>-24.9219343420238</v>
       </c>
       <c r="F36" t="n">
-        <v>3.214419479861492</v>
+        <v>3.291585512810626</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.734663836612382</v>
+        <v>-4.793539922491624</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-4.433267870916306</v>
       </c>
       <c r="E37" t="n">
-        <v>-24.3122519832903</v>
+        <v>-24.43775479833108</v>
       </c>
       <c r="F37" t="n">
-        <v>3.082920390119196</v>
+        <v>3.163909375498113</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.732254852889505</v>
+        <v>-4.778143374349755</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-4.624001779574761</v>
       </c>
       <c r="E38" t="n">
-        <v>-23.89898035178837</v>
+        <v>-24.0180941230424</v>
       </c>
       <c r="F38" t="n">
-        <v>3.010703247644234</v>
+        <v>3.089309433905958</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.87459436938475</v>
+        <v>-4.926282781003885</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-4.787811330692493</v>
       </c>
       <c r="E39" t="n">
-        <v>-23.40038618266692</v>
+        <v>-23.51591266294231</v>
       </c>
       <c r="F39" t="n">
-        <v>2.981952550603804</v>
+        <v>3.062391659263369</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.748515493018928</v>
+        <v>-4.790554877443711</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-4.924115171965915</v>
       </c>
       <c r="E40" t="n">
-        <v>-23.01837897035104</v>
+        <v>-23.13020032892222</v>
       </c>
       <c r="F40" t="n">
-        <v>3.066790673018189</v>
+        <v>3.163752267864012</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.73775362008303</v>
+        <v>-4.769279885325906</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-5.028817016892323</v>
       </c>
       <c r="E41" t="n">
-        <v>-22.4886643973748</v>
+        <v>-22.59815532604016</v>
       </c>
       <c r="F41" t="n">
-        <v>3.086848080971714</v>
+        <v>3.173362018149839</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.66592924669332</v>
+        <v>-4.696944912125369</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-5.108668696023146</v>
       </c>
       <c r="E42" t="n">
-        <v>-21.81524870840778</v>
+        <v>-21.91566667120382</v>
       </c>
       <c r="F42" t="n">
-        <v>3.183416906732285</v>
+        <v>3.265217614887389</v>
       </c>
       <c r="G42" t="n">
-        <v>-4.692598267581916</v>
+        <v>-4.726140747462418</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-5.164390147082409</v>
       </c>
       <c r="E43" t="n">
-        <v>-21.15273890770791</v>
+        <v>-21.25138940962032</v>
       </c>
       <c r="F43" t="n">
-        <v>3.301300001519186</v>
+        <v>3.384252832324363</v>
       </c>
       <c r="G43" t="n">
-        <v>-4.733681913899253</v>
+        <v>-4.774896483245007</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-5.196910042132147</v>
       </c>
       <c r="E44" t="n">
-        <v>-20.86521884500077</v>
+        <v>-20.95833130281112</v>
       </c>
       <c r="F44" t="n">
-        <v>3.210256127557823</v>
+        <v>3.286479514702353</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.786666463499718</v>
+        <v>-4.822879773159933</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-5.215761551961539</v>
       </c>
       <c r="E45" t="n">
-        <v>-20.38126187045636</v>
+        <v>-20.46693790025262</v>
       </c>
       <c r="F45" t="n">
-        <v>3.334711558371271</v>
+        <v>3.418659404192419</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.736352743678965</v>
+        <v>-4.767054193842813</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-5.221250612110051</v>
       </c>
       <c r="E46" t="n">
-        <v>-20.05225230004379</v>
+        <v>-20.14175128226983</v>
       </c>
       <c r="F46" t="n">
-        <v>3.363488440017385</v>
+        <v>3.445393886595224</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.717997335094865</v>
+        <v>-4.728877038756339</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-5.217945862719962</v>
       </c>
       <c r="E47" t="n">
-        <v>-19.51188059255439</v>
+        <v>-19.59179600910028</v>
       </c>
       <c r="F47" t="n">
-        <v>3.372469759766809</v>
+        <v>3.45052606930918</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.990225588082875</v>
+        <v>-4.99466387874622</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-5.214588223190959</v>
       </c>
       <c r="E48" t="n">
-        <v>-19.03782139895833</v>
+        <v>-19.11477795506199</v>
       </c>
       <c r="F48" t="n">
-        <v>3.303813723664798</v>
+        <v>3.37626652759091</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.106092468232151</v>
+        <v>-5.108828759526071</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-5.208679520956291</v>
       </c>
       <c r="E49" t="n">
-        <v>-18.64689832840723</v>
+        <v>-18.73679007971852</v>
       </c>
       <c r="F49" t="n">
-        <v>3.323347439504653</v>
+        <v>3.394255351695441</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.39272225434606</v>
+        <v>-5.40099658974203</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-5.207740024887979</v>
       </c>
       <c r="E50" t="n">
-        <v>-18.13365387240588</v>
+        <v>-18.21932990220214</v>
       </c>
       <c r="F50" t="n">
-        <v>3.460371481046158</v>
+        <v>3.545157234249176</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.316970190103833</v>
+        <v>-5.298064904800381</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-5.218163156208812</v>
       </c>
       <c r="E51" t="n">
-        <v>-17.46763533454444</v>
+        <v>-17.55722596289037</v>
       </c>
       <c r="F51" t="n">
-        <v>3.475610921553927</v>
+        <v>3.566523872486873</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.530021234247241</v>
+        <v>-5.510487518407386</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-5.235149329649265</v>
       </c>
       <c r="E52" t="n">
-        <v>-17.07618857187967</v>
+        <v>-17.16323929347431</v>
       </c>
       <c r="F52" t="n">
-        <v>3.306929691741129</v>
+        <v>3.389751599517888</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.814700267237733</v>
+        <v>-5.818078081370897</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-5.26804406141881</v>
       </c>
       <c r="E53" t="n">
-        <v>-16.68461088618648</v>
+        <v>-16.77687234431213</v>
       </c>
       <c r="F53" t="n">
-        <v>3.343116816795659</v>
+        <v>3.420649434224361</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.846174163269242</v>
+        <v>-5.845100594436221</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-5.318761593856033</v>
       </c>
       <c r="E54" t="n">
-        <v>-16.48415463737681</v>
+        <v>-16.58865739865947</v>
       </c>
       <c r="F54" t="n">
-        <v>3.079123622295095</v>
+        <v>3.153199871773581</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.025708912137832</v>
+        <v>-6.015680208161069</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-5.381550510764129</v>
       </c>
       <c r="E55" t="n">
-        <v>-16.19176423801255</v>
+        <v>-16.30362487349225</v>
       </c>
       <c r="F55" t="n">
-        <v>2.931128230972224</v>
+        <v>3.00740398732812</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.171504796583293</v>
+        <v>-6.150347635191063</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-5.466293598878459</v>
       </c>
       <c r="E56" t="n">
-        <v>-15.85901026898724</v>
+        <v>-15.98292891538417</v>
       </c>
       <c r="F56" t="n">
-        <v>2.877371235504096</v>
+        <v>2.95385646870546</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.476634006612561</v>
+        <v>-6.473151454056661</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-5.571193911097716</v>
       </c>
       <c r="E57" t="n">
-        <v>-15.31265537909917</v>
+        <v>-15.43555282587445</v>
       </c>
       <c r="F57" t="n">
-        <v>2.910337654059563</v>
+        <v>2.9993653133833</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.734552372594564</v>
+        <v>-6.729577297514709</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-5.691950079344933</v>
       </c>
       <c r="E58" t="n">
-        <v>-15.10852019319097</v>
+        <v>-15.23890643719172</v>
       </c>
       <c r="F58" t="n">
-        <v>2.751239989926908</v>
+        <v>2.843409801932659</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.709572258772551</v>
+        <v>-6.707569136437767</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-5.836217973119671</v>
       </c>
       <c r="E59" t="n">
-        <v>-14.76267392132394</v>
+        <v>-14.89794359428465</v>
       </c>
       <c r="F59" t="n">
-        <v>2.873914867553881</v>
+        <v>2.977893936722869</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.82076518680733</v>
+        <v>-6.81454634295751</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-5.997114013101506</v>
       </c>
       <c r="E60" t="n">
-        <v>-14.70462265052373</v>
+        <v>-14.8488212740225</v>
       </c>
       <c r="F60" t="n">
-        <v>2.692874503858492</v>
+        <v>2.796748834604747</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.823553847312618</v>
+        <v>-6.823907339489344</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-6.17301072336219</v>
       </c>
       <c r="E61" t="n">
-        <v>-14.36111990086536</v>
+        <v>-14.50284407912704</v>
       </c>
       <c r="F61" t="n">
-        <v>2.578552515444541</v>
+        <v>2.683631338052234</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.22762158991681</v>
+        <v>-7.240098554524975</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-6.368766800692573</v>
       </c>
       <c r="E62" t="n">
-        <v>-14.15055639426188</v>
+        <v>-14.30711415164324</v>
       </c>
       <c r="F62" t="n">
-        <v>2.530948902312025</v>
+        <v>2.641186092239358</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.177517346941524</v>
+        <v>-7.174990532493071</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-6.573746727729593</v>
       </c>
       <c r="E63" t="n">
-        <v>-13.83124822025502</v>
+        <v>-13.98914139252624</v>
       </c>
       <c r="F63" t="n">
-        <v>2.45870557523138</v>
+        <v>2.568288150016627</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.375263489062955</v>
+        <v>-7.385410023765292</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-6.790380443716798</v>
       </c>
       <c r="E64" t="n">
-        <v>-13.64154075207841</v>
+        <v>-13.80828432107063</v>
       </c>
       <c r="F64" t="n">
-        <v>2.369101854582607</v>
+        <v>2.48297870469994</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.398895095692271</v>
+        <v>-7.38273919398558</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-7.020272504669355</v>
       </c>
       <c r="E65" t="n">
-        <v>-13.45098228421709</v>
+        <v>-13.62122149806805</v>
       </c>
       <c r="F65" t="n">
-        <v>2.133440403431538</v>
+        <v>2.221263570893836</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.741337368820457</v>
+        <v>-7.743131014309774</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-7.249785441731604</v>
       </c>
       <c r="E66" t="n">
-        <v>-13.23461888745472</v>
+        <v>-13.40807880780475</v>
       </c>
       <c r="F66" t="n">
-        <v>2.066852951178519</v>
+        <v>2.155068887726069</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.788495843656355</v>
+        <v>-7.778179109017074</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-7.484802218645795</v>
       </c>
       <c r="E67" t="n">
-        <v>-13.06443204281513</v>
+        <v>-13.23962014714026</v>
       </c>
       <c r="F67" t="n">
-        <v>2.332836175711026</v>
+        <v>2.456401329931236</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.861982939506963</v>
+        <v>-7.869484829035272</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-7.72224447405198</v>
       </c>
       <c r="E68" t="n">
-        <v>-13.0129662003443</v>
+        <v>-13.19453025615336</v>
       </c>
       <c r="F68" t="n">
-        <v>2.048497542594419</v>
+        <v>2.148129967219954</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.766605513304989</v>
+        <v>-7.756367332482759</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-7.94915897367409</v>
       </c>
       <c r="E69" t="n">
-        <v>-12.87232868321848</v>
+        <v>-13.05524124622023</v>
       </c>
       <c r="F69" t="n">
-        <v>2.100473984876071</v>
+        <v>2.226919445721462</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.838940486505525</v>
+        <v>-7.828649936471928</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-8.171727786953369</v>
       </c>
       <c r="E70" t="n">
-        <v>-12.84648447740891</v>
+        <v>-13.04159906665916</v>
       </c>
       <c r="F70" t="n">
-        <v>2.101023861595424</v>
+        <v>2.21984960218693</v>
       </c>
       <c r="G70" t="n">
-        <v>-7.749218935131176</v>
+        <v>-7.733796202383623</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-8.383414315907721</v>
       </c>
       <c r="E71" t="n">
-        <v>-12.54210152864162</v>
+        <v>-12.73120675088751</v>
       </c>
       <c r="F71" t="n">
-        <v>2.055829232185785</v>
+        <v>2.177273433345637</v>
       </c>
       <c r="G71" t="n">
-        <v>-7.463859102392915</v>
+        <v>-7.425354639735398</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-8.574095572776148</v>
       </c>
       <c r="E72" t="n">
-        <v>-12.47467616900673</v>
+        <v>-12.6619222842491</v>
       </c>
       <c r="F72" t="n">
-        <v>2.066303074459166</v>
+        <v>2.18101783195837</v>
       </c>
       <c r="G72" t="n">
-        <v>-7.526257017736581</v>
+        <v>-7.497493228393309</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-8.749324657620784</v>
       </c>
       <c r="E73" t="n">
-        <v>-12.17062052781049</v>
+        <v>-12.31252799831196</v>
       </c>
       <c r="F73" t="n">
-        <v>2.042291791047441</v>
+        <v>2.157451686843263</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.266178421785693</v>
+        <v>-7.213927041144364</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-8.89835634857093</v>
       </c>
       <c r="E74" t="n">
-        <v>-12.37221580696738</v>
+        <v>-12.51513138478767</v>
       </c>
       <c r="F74" t="n">
-        <v>2.06708861262967</v>
+        <v>2.178582663629809</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.212879656917027</v>
+        <v>-7.170565334132568</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-9.015167621694058</v>
       </c>
       <c r="E75" t="n">
-        <v>-12.50484083475407</v>
+        <v>-12.64841102771644</v>
       </c>
       <c r="F75" t="n">
-        <v>1.999061007064061</v>
+        <v>2.110581242669884</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.138515376776022</v>
+        <v>-7.105326389072246</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-9.101642097036287</v>
       </c>
       <c r="E76" t="n">
-        <v>-12.76663452237722</v>
+        <v>-12.89783248915416</v>
       </c>
       <c r="F76" t="n">
-        <v>1.98122929059363</v>
+        <v>2.085627313453554</v>
       </c>
       <c r="G76" t="n">
-        <v>-6.797827472228627</v>
+        <v>-6.740954508684168</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-9.143705688398891</v>
       </c>
       <c r="E77" t="n">
-        <v>-13.34370395473198</v>
+        <v>-13.46910203135004</v>
       </c>
       <c r="F77" t="n">
-        <v>1.973400093494278</v>
+        <v>2.080783161402115</v>
       </c>
       <c r="G77" t="n">
-        <v>-6.736293648872514</v>
+        <v>-6.697344047918379</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-9.140171814030436</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.83740160259063</v>
+        <v>-13.95692123523275</v>
       </c>
       <c r="F78" t="n">
-        <v>2.02301992126442</v>
+        <v>2.13391172633384</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.745811753038449</v>
+        <v>-6.730768697073305</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-9.09134526992735</v>
       </c>
       <c r="E79" t="n">
-        <v>-14.32621582148932</v>
+        <v>-14.44464879299557</v>
       </c>
       <c r="F79" t="n">
-        <v>2.06860731975931</v>
+        <v>2.17722106413427</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.646100774595863</v>
+        <v>-6.643364483301943</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-8.984591734425315</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.87500587970595</v>
+        <v>-14.99190705177972</v>
       </c>
       <c r="F80" t="n">
-        <v>1.961878866993559</v>
+        <v>2.055226986255066</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.297832426703108</v>
+        <v>-6.281794355721994</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-8.828821621410905</v>
       </c>
       <c r="E81" t="n">
-        <v>-15.6475826703962</v>
+        <v>-15.76255927395224</v>
       </c>
       <c r="F81" t="n">
-        <v>2.059102307896217</v>
+        <v>2.15810630198535</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.23731980296865</v>
+        <v>-6.230276144039801</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-8.628462802190517</v>
       </c>
       <c r="E82" t="n">
-        <v>-16.37767493836506</v>
+        <v>-16.48871075876574</v>
       </c>
       <c r="F82" t="n">
-        <v>2.033074809846866</v>
+        <v>2.122390499833121</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.137294609257863</v>
+        <v>-6.127815782000453</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-8.38038261536424</v>
       </c>
       <c r="E83" t="n">
-        <v>-17.25394276756179</v>
+        <v>-17.36620926442959</v>
       </c>
       <c r="F83" t="n">
-        <v>2.013122140316075</v>
+        <v>2.106313151943481</v>
       </c>
       <c r="G83" t="n">
-        <v>-5.843464056581005</v>
+        <v>-5.828434092918704</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-8.104215760784854</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.30838374613156</v>
+        <v>-18.41800559782533</v>
       </c>
       <c r="F84" t="n">
-        <v>2.028283027006794</v>
+        <v>2.110214658190316</v>
       </c>
       <c r="G84" t="n">
-        <v>-5.729115883561369</v>
+        <v>-5.726130838513456</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-7.80913582829798</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.10811397291555</v>
+        <v>-19.2157196099717</v>
       </c>
       <c r="F85" t="n">
-        <v>2.053315510040174</v>
+        <v>2.140719723811537</v>
       </c>
       <c r="G85" t="n">
-        <v>-5.588897320126483</v>
+        <v>-5.596883624859936</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-7.50066810536169</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.25412251756036</v>
+        <v>-20.37128553569097</v>
       </c>
       <c r="F86" t="n">
-        <v>2.041349145242836</v>
+        <v>2.127496497941394</v>
       </c>
       <c r="G86" t="n">
-        <v>-5.252281121762864</v>
+        <v>-5.253826013498188</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-7.203267420030247</v>
       </c>
       <c r="E87" t="n">
-        <v>-21.31982287657402</v>
+        <v>-21.43802018662912</v>
       </c>
       <c r="F87" t="n">
-        <v>1.872196592527736</v>
+        <v>1.926974787617518</v>
       </c>
       <c r="G87" t="n">
-        <v>-4.89476960806385</v>
+        <v>-4.882371197272736</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-6.924319186414142</v>
       </c>
       <c r="E88" t="n">
-        <v>-22.66258254832429</v>
+        <v>-22.77758533648601</v>
       </c>
       <c r="F88" t="n">
-        <v>1.964811542830106</v>
+        <v>2.026188258552118</v>
       </c>
       <c r="G88" t="n">
-        <v>-4.661805171298177</v>
+        <v>-4.662119386566378</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-6.674839981388522</v>
       </c>
       <c r="E89" t="n">
-        <v>-24.04650442020894</v>
+        <v>-24.14798285953516</v>
       </c>
       <c r="F89" t="n">
-        <v>1.828546854853421</v>
+        <v>1.901418612470468</v>
       </c>
       <c r="G89" t="n">
-        <v>-4.278763667057797</v>
+        <v>-4.271981854185783</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-6.475404764491094</v>
       </c>
       <c r="E90" t="n">
-        <v>-25.51628561412964</v>
+        <v>-25.61468736228805</v>
       </c>
       <c r="F90" t="n">
-        <v>1.616608656451559</v>
+        <v>1.679163679429327</v>
       </c>
       <c r="G90" t="n">
-        <v>-4.162320725583485</v>
+        <v>-4.168081338833844</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-6.326611233565024</v>
       </c>
       <c r="E91" t="n">
-        <v>-27.16002423590835</v>
+        <v>-27.25675016930302</v>
       </c>
       <c r="F91" t="n">
-        <v>1.413101901079769</v>
+        <v>1.469398803299191</v>
       </c>
       <c r="G91" t="n">
-        <v>-4.063172716163094</v>
+        <v>-4.059114102282159</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-6.239660176188345</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.75745538253587</v>
+        <v>-28.83729224526471</v>
       </c>
       <c r="F92" t="n">
-        <v>1.291631515314235</v>
+        <v>1.341932142832146</v>
       </c>
       <c r="G92" t="n">
-        <v>-3.794165169674149</v>
+        <v>-3.786349064877638</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-6.224892684139908</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.60792146618543</v>
+        <v>-30.68076703919679</v>
       </c>
       <c r="F93" t="n">
-        <v>1.153363705002766</v>
+        <v>1.201163702677908</v>
       </c>
       <c r="G93" t="n">
-        <v>-3.786650187842997</v>
+        <v>-3.770782316798825</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-6.270825700624854</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.68759449568509</v>
+        <v>-32.75038518011401</v>
       </c>
       <c r="F94" t="n">
-        <v>1.040403316084353</v>
+        <v>1.084681484295071</v>
       </c>
       <c r="G94" t="n">
-        <v>-3.78212025105976</v>
+        <v>-3.759418197932207</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-6.383560809894962</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.72033161949717</v>
+        <v>-34.77347327673173</v>
       </c>
       <c r="F95" t="n">
-        <v>0.6359689890005934</v>
+        <v>0.6813207260443325</v>
       </c>
       <c r="G95" t="n">
-        <v>-3.768046025504905</v>
+        <v>-3.742411296540805</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-6.562830826197253</v>
       </c>
       <c r="E96" t="n">
-        <v>-36.69233355042647</v>
+        <v>-36.73792094892136</v>
       </c>
       <c r="F96" t="n">
-        <v>0.410545718671754</v>
+        <v>0.4648656831620754</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.980062777723817</v>
+        <v>-3.96021484661576</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-6.787256980661059</v>
       </c>
       <c r="E97" t="n">
-        <v>-38.78227094535404</v>
+        <v>-38.82064448498314</v>
       </c>
       <c r="F97" t="n">
-        <v>0.03033215184518722</v>
+        <v>0.07601119645996947</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.979591454821515</v>
+        <v>-3.945590744341552</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-7.070791085702224</v>
       </c>
       <c r="E98" t="n">
-        <v>-41.00857776668104</v>
+        <v>-41.02762706731575</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.1808728775975377</v>
+        <v>-0.1267492976498421</v>
       </c>
       <c r="G98" t="n">
-        <v>-4.179956057511291</v>
+        <v>-4.144947239712515</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-7.392174379806773</v>
       </c>
       <c r="E99" t="n">
-        <v>-43.3889024386381</v>
+        <v>-43.40084261882975</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.101520430073836</v>
+        <v>-0.04805146526822675</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.50861213574714</v>
+        <v>-4.47508274816948</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-7.759630492640825</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.79636745438605</v>
+        <v>-45.7958175776667</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.3665610088017385</v>
+        <v>-0.3326912213501932</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.693711113323463</v>
+        <v>-4.650519606248609</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-8.144971217541171</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.1951391810471</v>
+        <v>-48.19390850457998</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.3053021238053023</v>
+        <v>-0.2571617262562755</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.973310332811365</v>
+        <v>-4.917419291980036</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-8.597117013043208</v>
       </c>
       <c r="E102" t="n">
-        <v>-50.41348588224633</v>
+        <v>-50.40031502558755</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.4512813004905479</v>
+        <v>-0.4067281939201541</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.330468354333652</v>
+        <v>-5.280796157352143</v>
       </c>
     </row>
   </sheetData>
